--- a/S10_Table.xlsx
+++ b/S10_Table.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoé\Desktop\BMC Plant physiology\Préparation soumission\Tableaux supplémentaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoé\Desktop\Publication article 2\PlosOne\Révision\Pour ressoumission\S Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF3017-DB83-4790-B5F2-F7CC0E5401F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B1E296-368F-4A85-8E2A-78F6466BD1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caption" sheetId="1" r:id="rId1"/>
-    <sheet name="Table S10" sheetId="2" r:id="rId2"/>
+    <sheet name="S10 Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table S10'!$A$1:$I$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S10 Table'!$A$1:$I$133</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -1174,10 +1174,10 @@
     <t>Prunier, J., Pelgas, B., Gagnon, F., Desponts, M., Isabel, N., Beaulieu, J., et al. (2013). The genomic architecture and association genetics of adaptive characters using a candidate SNP approach in boreal black spruce. BMC Genomics 14, 368. doi: 10.1186/1471-2164-14-368.</t>
   </si>
   <si>
-    <t>Table S10</t>
-  </si>
-  <si>
     <t>The list of differentially expressed transcripts (DETs) and corresponding annotated genes (DEGs) based on the WS77111v2 and GCAT3.3 genomes whose characterization as a key drought-responsive gene has been found in previous published studies.</t>
+  </si>
+  <si>
+    <t>Authors: Zoé Ribeyre, Claire Depardieu, Julien Prunier, Gervais Pelletier, Geneviève Parent, John Mackay, Arnaud Droit, Jean Bousquet, Philippe Nolet, Christian Messier</t>
   </si>
   <si>
     <r>
@@ -1202,7 +1202,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> transcriptome assembly and discovery of drought-responsive genes in eastern white spruce (</t>
+      <t xml:space="preserve"> transcriptome assembly and discovery of drought-responsive genes in white spruce (</t>
     </r>
     <r>
       <rPr>
@@ -1227,14 +1227,14 @@
     </r>
   </si>
   <si>
-    <t>Authors: Zoé Ribeyre, Claire Depardieu, Julien Prunier, Gervais Pelletier, Geneviève Parent, John Mackay, Arnaud Droit, Jean Bousquet, Philippe Nolet, Christian Messier</t>
+    <t>S10 Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,13 +1304,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1422,14 +1415,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C990"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1672,13 +1665,13 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="21" t="s">
-        <v>384</v>
+      <c r="C7" s="20" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1694,10 +1687,10 @@
     </row>
     <row r="10" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>381</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1708,37 +1701,37 @@
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="2:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2723,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
